--- a/InputData.xlsx
+++ b/InputData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Anaconda3\envs\Scripts\Crossection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FBF2F1E-C413-45C6-8CEE-6224F671B4B9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13352B48-CCB3-444F-AEF6-4E5F1F182203}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="5970" xr2:uid="{6D1A5FFD-EB38-4D80-8B60-A5BD7402A525}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="5970" activeTab="1" xr2:uid="{6D1A5FFD-EB38-4D80-8B60-A5BD7402A525}"/>
   </bookViews>
   <sheets>
     <sheet name="Reinforcement" sheetId="1" r:id="rId1"/>
@@ -39,24 +39,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
   <si>
     <t>Diameter</t>
-  </si>
-  <si>
-    <t>Styvhet</t>
   </si>
   <si>
     <t>Area</t>
   </si>
   <si>
-    <t>fck</t>
+    <t>Strength</t>
   </si>
   <si>
-    <t>gamma_d</t>
-  </si>
-  <si>
-    <t>fcd</t>
+    <t>Stiffness</t>
   </si>
 </sst>
 </file>
@@ -94,7 +88,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -409,29 +403,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE744137-1ECA-427C-95E0-09EC9830D52B}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>8</v>
       </c>
@@ -442,8 +440,11 @@
         <f>A2^2 * 3.14 / 4 / 1000000</f>
         <v>5.024E-5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="1">
+        <v>500000000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10</v>
       </c>
@@ -454,8 +455,11 @@
         <f t="shared" ref="C3:C9" si="0">A3^2 * 3.14 / 4 / 1000000</f>
         <v>7.8499999999999997E-5</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="1">
+        <v>500000000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>12</v>
       </c>
@@ -466,8 +470,11 @@
         <f t="shared" si="0"/>
         <v>1.1304E-4</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="1">
+        <v>500000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>16</v>
       </c>
@@ -478,8 +485,11 @@
         <f t="shared" si="0"/>
         <v>2.0096E-4</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="1">
+        <v>500000000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>20</v>
       </c>
@@ -490,8 +500,11 @@
         <f t="shared" si="0"/>
         <v>3.1399999999999999E-4</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="1">
+        <v>500000000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>25</v>
       </c>
@@ -502,8 +515,11 @@
         <f t="shared" si="0"/>
         <v>4.9062499999999996E-4</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" s="1">
+        <v>500000000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>32</v>
       </c>
@@ -514,8 +530,11 @@
         <f t="shared" si="0"/>
         <v>8.0384E-4</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" s="1">
+        <v>500000000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>40</v>
       </c>
@@ -526,6 +545,9 @@
         <f t="shared" si="0"/>
         <v>1.256E-3</v>
       </c>
+      <c r="D9" s="1">
+        <v>500000000</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -534,10 +556,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88BCF187-7519-4A7B-A0B0-BF4E93057FDC}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:A15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -545,183 +567,79 @@
     <col min="2" max="2" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>12</v>
-      </c>
-      <c r="B2">
-        <v>1.5</v>
-      </c>
-      <c r="C2">
-        <f>A2/B2</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>12000000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>16</v>
-      </c>
-      <c r="B3">
-        <v>1.5</v>
-      </c>
-      <c r="C3">
-        <f t="shared" ref="C3:C15" si="0">A3/B3</f>
-        <v>10.666666666666666</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>16000000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>20</v>
-      </c>
-      <c r="B4">
-        <v>1.5</v>
-      </c>
-      <c r="C4">
-        <f t="shared" si="0"/>
-        <v>13.333333333333334</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>20000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>25</v>
-      </c>
-      <c r="B5">
-        <v>1.5</v>
-      </c>
-      <c r="C5">
-        <f t="shared" si="0"/>
-        <v>16.666666666666668</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>25000000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>30</v>
-      </c>
-      <c r="B6">
-        <v>1.5</v>
-      </c>
-      <c r="C6">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>30000000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>35</v>
-      </c>
-      <c r="B7">
-        <v>1.5</v>
-      </c>
-      <c r="C7">
-        <f t="shared" si="0"/>
-        <v>23.333333333333332</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>35000000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>40</v>
-      </c>
-      <c r="B8">
-        <v>1.5</v>
-      </c>
-      <c r="C8">
-        <f t="shared" si="0"/>
-        <v>26.666666666666668</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40000000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>45</v>
-      </c>
-      <c r="B9">
-        <v>1.5</v>
-      </c>
-      <c r="C9">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>45000000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>50</v>
-      </c>
-      <c r="B10">
-        <v>1.5</v>
-      </c>
-      <c r="C10">
-        <f t="shared" si="0"/>
-        <v>33.333333333333336</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>50000000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>55</v>
-      </c>
-      <c r="B11">
-        <v>1.5</v>
-      </c>
-      <c r="C11">
-        <f t="shared" si="0"/>
-        <v>36.666666666666664</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>55000000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>60</v>
-      </c>
-      <c r="B12">
-        <v>1.5</v>
-      </c>
-      <c r="C12">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60000000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>70</v>
-      </c>
-      <c r="B13">
-        <v>1.5</v>
-      </c>
-      <c r="C13">
-        <f t="shared" si="0"/>
-        <v>46.666666666666664</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>70000000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>80</v>
-      </c>
-      <c r="B14">
-        <v>1.5</v>
-      </c>
-      <c r="C14">
-        <f t="shared" si="0"/>
-        <v>53.333333333333336</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>80000000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>90</v>
-      </c>
-      <c r="B15">
-        <v>1.5</v>
-      </c>
-      <c r="C15">
-        <f t="shared" si="0"/>
-        <v>60</v>
+        <v>90000000</v>
       </c>
     </row>
   </sheetData>
